--- a/research/media/phones/phones.xlsx
+++ b/research/media/phones/phones.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/210ethan.github.io/research/media/phones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F313D0-1623-7946-A80F-8197B9C38AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7AD86C-7E96-6245-9620-EE5C83DA908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" xr2:uid="{BF12AA00-682D-A043-BEEC-B57668EA4ED7}"/>
+    <workbookView xWindow="25600" yWindow="-12300" windowWidth="25600" windowHeight="28300" xr2:uid="{BF12AA00-682D-A043-BEEC-B57668EA4ED7}"/>
   </bookViews>
   <sheets>
     <sheet name="phones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -118,9 +118,6 @@
     <t>EC</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Fe</t>
   </si>
   <si>
@@ -163,10 +160,22 @@
     <t>Number of women</t>
   </si>
   <si>
-    <t>How often I was right about them having iPhones</t>
-  </si>
-  <si>
     <t>With iphones</t>
+  </si>
+  <si>
+    <t>How often I was right about them having iPhones (%)</t>
+  </si>
+  <si>
+    <t>Brier score</t>
+  </si>
+  <si>
+    <t>Brier score without participant Te</t>
+  </si>
+  <si>
+    <t>Number of men</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -238,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,16 +261,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -285,16 +291,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>27022</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>40531</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>310745</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>135105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>32426</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>220222</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3612745</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>58094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -317,7 +323,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10335639" y="8687340"/>
+          <a:off x="8862979" y="12200105"/>
           <a:ext cx="3302000" cy="1206500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -627,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FE0EBC-DE9F-F846-B902-9514A8F5A216}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -642,32 +648,35 @@
     <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="48" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
+      <c r="H1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" x14ac:dyDescent="0.25">
@@ -688,11 +697,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1">
         <f>COUNTIF(E2:E30,"F")</f>
@@ -710,18 +719,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D61" si="0">IF(B3=C3,1,0)</f>
+        <f t="shared" ref="D3:D30" si="0">IF(B3=C3,1,0)</f>
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1">
         <f>COUNTIFS(E2:E30,"F",C2:C30,1)</f>
@@ -746,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
@@ -775,11 +784,11 @@
         <v>5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1">
         <f>COUNTIF(E2:E30,"M")</f>
@@ -804,11 +813,11 @@
         <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1">
         <f>COUNTIFS(E2:E30,"M",C2:C30,1)</f>
@@ -833,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
@@ -862,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -884,9 +893,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2"/>
+      <c r="H9" s="1">
+        <f>COUNTIFS(D2:D60,1,E2:E60,"M")</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -906,9 +919,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2"/>
+      <c r="H10" s="1">
+        <f>COUNTIFS(C2:C60,0,D2:D60,1)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -928,9 +945,13 @@
         <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2"/>
+      <c r="H11" s="1">
+        <f>COUNTIF(C2:C60,0)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -950,9 +971,13 @@
         <v>5</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2"/>
+      <c r="H12" s="1">
+        <f>COUNTIFS(C2:C60,1,D2:D60,1)</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -972,9 +997,13 @@
         <v>5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="2"/>
+      <c r="H13" s="1">
+        <f>COUNTIF(C2:C60,1)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -994,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -1016,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1038,11 +1067,11 @@
         <v>5</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1060,11 +1089,11 @@
         <v>5</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1082,11 +1111,11 @@
         <v>4</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1104,11 +1133,11 @@
         <v>4</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1126,11 +1155,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -1148,11 +1177,11 @@
         <v>5</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1170,11 +1199,11 @@
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
@@ -1192,11 +1221,11 @@
         <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1214,11 +1243,11 @@
         <v>5</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -1236,11 +1265,11 @@
         <v>5</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -1258,11 +1287,11 @@
         <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -1280,11 +1309,11 @@
         <v>5</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
@@ -1302,11 +1331,11 @@
         <v>5</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -1324,11 +1353,11 @@
         <v>5</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -1346,125 +1375,168 @@
         <v>4</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3">
+        <v>75</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <f>IF(AND(B31&gt;50,C31=1),1,IF(AND(B31&lt;50,C31=0),1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4">
+        <f>(B31/100-D31)^2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="I31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="3">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="3">
-        <f>IF(AND(B32&gt;50,C32=1),1,IF(AND(B32&lt;50,C32=0),1,0))</f>
+        <f t="shared" ref="D32:D60" si="1">IF(AND(B32&gt;50,C32=1),1,IF(AND(B32&lt;50,C32=0),1,0))</f>
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="4">
-        <f>(B32/100-D32)^2</f>
-        <v>6.25E-2</v>
+        <f t="shared" ref="F32:F33" si="2">(B32/100-D32)^2</f>
+        <v>9.999999999999995E-3</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <f>COUNTIF(E31:E60,"F")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="3">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" ref="D33:D61" si="1">IF(AND(B33&gt;50,C33=1),1,IF(AND(B33&lt;50,C33=0),1,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" ref="F33:F34" si="2">(B33/100-D33)^2</f>
-        <v>9.999999999999995E-3</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="3">
-        <v>75</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="4">
         <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="1">
+        <f>COUNTIFS(E31:E60,"F",C31:C60,1)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3">
+        <v>70</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="4">
+        <f>(B34/100-D34)^2</f>
+        <v>9.0000000000000024E-2</v>
+      </c>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="H34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="1">
+        <f>(COUNTIFS(E31:E60,"F",C31:C60,1,D31:D60,1)/I33)*100</f>
+        <v>95.833333333333343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="3">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" s="4">
-        <f>(B35/100-D35)^2</f>
-        <v>9.0000000000000024E-2</v>
+        <f t="shared" ref="F35:F60" si="3">(B35/100-D35)^2</f>
+        <v>0.64000000000000012</v>
       </c>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="H35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="1">
+        <f>COUNTIF(E31:E60,"M")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="3">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="1"/>
@@ -1474,152 +1546,180 @@
         <v>4</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" ref="F36:F61" si="3">(B36/100-D36)^2</f>
-        <v>0.64000000000000012</v>
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
       </c>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="H36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="1">
+        <f>COUNTIFS(E31:E60,"M",C31:C60,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B37" s="3">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="3"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="1">
+        <f>(COUNTIFS(E31:E60,"M",C31:C60,1,D31:D60,1)/I36)*100</f>
         <v>75</v>
       </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="4">
-        <f t="shared" si="3"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B38" s="3">
+        <v>80</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="3"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="3">
+        <v>85</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2500000000000006E-2</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="1">
+        <f>AVERAGE(F31:F60)</f>
+        <v>0.11200000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="3">
         <v>70</v>
       </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="4">
         <f t="shared" si="3"/>
         <v>9.0000000000000024E-2</v>
       </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="3">
+      <c r="G40" s="2"/>
+      <c r="H40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="1">
+        <f>AVERAGE(F31:F57,F59,F60)</f>
+        <v>8.4741379310344853E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3">
+        <v>60</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="3">
         <v>80</v>
       </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="4">
         <f t="shared" si="3"/>
         <v>3.999999999999998E-2</v>
       </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="3">
-        <v>85</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="4">
-        <f t="shared" si="3"/>
-        <v>2.2500000000000006E-2</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="3">
-        <v>70</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="4">
-        <f t="shared" si="3"/>
-        <v>9.0000000000000024E-2</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="3">
-        <v>60</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="4">
-        <f t="shared" si="3"/>
-        <v>0.16000000000000003</v>
-      </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B43" s="3">
         <v>80</v>
@@ -1640,81 +1740,81 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B44" s="3">
+        <v>70</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="3"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3">
+        <v>75</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="3">
         <v>80</v>
       </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="4">
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="4">
         <f t="shared" si="3"/>
         <v>3.999999999999998E-2</v>
       </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="3">
-        <v>70</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="4">
-        <f t="shared" si="3"/>
-        <v>9.0000000000000024E-2</v>
-      </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="3">
-        <v>75</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="4">
-        <f t="shared" si="3"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="B47" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -1724,20 +1824,20 @@
         <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" si="3"/>
-        <v>3.999999999999998E-2</v>
+        <v>9.999999999999995E-3</v>
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" s="3">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -1751,16 +1851,16 @@
       </c>
       <c r="F48" s="4">
         <f t="shared" si="3"/>
-        <v>9.999999999999995E-3</v>
+        <v>2.2500000000000006E-2</v>
       </c>
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B49" s="3">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
@@ -1774,16 +1874,16 @@
       </c>
       <c r="F49" s="4">
         <f t="shared" si="3"/>
-        <v>2.2500000000000006E-2</v>
+        <v>3.999999999999998E-2</v>
       </c>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B50" s="3">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -1797,30 +1897,30 @@
       </c>
       <c r="F50" s="4">
         <f t="shared" si="3"/>
-        <v>3.999999999999998E-2</v>
+        <v>2.2500000000000006E-2</v>
       </c>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B51" s="3">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" si="3"/>
-        <v>2.2500000000000006E-2</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="G51" s="2"/>
     </row>
@@ -1829,30 +1929,30 @@
         <v>34</v>
       </c>
       <c r="B52" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" si="3"/>
-        <v>0.16000000000000003</v>
+        <v>3.999999999999998E-2</v>
       </c>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -1866,16 +1966,16 @@
       </c>
       <c r="F53" s="4">
         <f t="shared" si="3"/>
-        <v>3.999999999999998E-2</v>
+        <v>9.0000000000000024E-2</v>
       </c>
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B54" s="3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -1889,62 +1989,62 @@
       </c>
       <c r="F54" s="4">
         <f t="shared" si="3"/>
-        <v>9.0000000000000024E-2</v>
+        <v>9.999999999999995E-3</v>
       </c>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="3">
         <v>25</v>
       </c>
-      <c r="B55" s="3">
-        <v>90</v>
-      </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="4">
         <f t="shared" si="3"/>
-        <v>9.999999999999995E-3</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B56" s="3">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" si="3"/>
-        <v>6.25E-2</v>
+        <v>0.12249999999999998</v>
       </c>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B57" s="3">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
@@ -1958,62 +2058,62 @@
       </c>
       <c r="F57" s="4">
         <f t="shared" si="3"/>
-        <v>0.12249999999999998</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B58" s="3">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="3"/>
-        <v>6.25E-2</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B59" s="3">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F59" s="4">
         <f t="shared" si="3"/>
-        <v>0.90249999999999997</v>
+        <v>9.0000000000000024E-2</v>
       </c>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B60" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -2027,32 +2127,9 @@
       </c>
       <c r="F60" s="4">
         <f t="shared" si="3"/>
-        <v>9.0000000000000024E-2</v>
+        <v>0.12249999999999998</v>
       </c>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="3">
-        <v>65</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="4">
-        <f t="shared" si="3"/>
-        <v>0.12249999999999998</v>
-      </c>
-      <c r="G61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
